--- a/Docs/00_SCRUM_Files/ProductBacklog_Master.xlsx
+++ b/Docs/00_SCRUM_Files/ProductBacklog_Master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01_DesignStudio3\00_Project\DS3-WorkInProgress\Docs\00_SCRUM_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\00_GitHub\DS3-WorkInProgress\Docs\00_SCRUM_Files\01_Milestone1\WorkInProgress_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -500,9 +500,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,9 +508,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,19 +519,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,40 +528,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -588,461 +545,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F3FFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F3FFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F3FFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F3FFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F3FFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1497,7 +1046,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1058,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,7 +1097,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,7 +1109,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,7 +1148,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,7 +1160,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>181</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,11 +1176,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="281841744"/>
-        <c:axId val="281842304"/>
+        <c:axId val="356858720"/>
+        <c:axId val="356852840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="281841744"/>
+        <c:axId val="356858720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1237,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="281842304"/>
+        <c:crossAx val="356852840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1697,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281842304"/>
+        <c:axId val="356852840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1782,7 +1331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281841744"/>
+        <c:crossAx val="356858720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2263,15 +1812,15 @@
   <dimension ref="A1:IM41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
@@ -2283,106 +1832,107 @@
     <col min="12" max="247" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+    <row r="2" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="31">
         <v>9</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="31">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="4">
         <f>IF(F2=Lookups!$C$2,'Product Backlog'!E2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <f>IF(F2=Lookups!$C$3,'Product Backlog'!E2,0)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <f>IF(F2=Lookups!$C$4,'Product Backlog'!E2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+    <row r="3" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="31">
         <v>9</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="31">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="4">
         <f>IF(F3=Lookups!$C$2,'Product Backlog'!E3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(F3=Lookups!$C$3,'Product Backlog'!E3,0)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f>IF(F3=Lookups!$C$4,'Product Backlog'!E3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -2398,36 +1948,36 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+    <row r="4" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="31">
         <v>9</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="31">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="4">
         <f>IF(F4=Lookups!$C$2,'Product Backlog'!E4,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <f>IF(F4=Lookups!$C$3,'Product Backlog'!E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
         <f>IF(F4=Lookups!$C$4,'Product Backlog'!E4,0)</f>
         <v>0</v>
       </c>
@@ -2445,36 +1995,36 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+    <row r="5" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="31">
         <v>9</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="4">
         <f>IF(F5=Lookups!$C$2,'Product Backlog'!E5,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <f>IF(F5=Lookups!$C$3,'Product Backlog'!E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
         <f>IF(F5=Lookups!$C$4,'Product Backlog'!E5,0)</f>
         <v>0</v>
       </c>
@@ -2492,36 +2042,36 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+    <row r="6" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="31">
         <v>9</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="31">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="4">
         <f>IF(F6=Lookups!$C$2,'Product Backlog'!E6,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <f>IF(F6=Lookups!$C$3,'Product Backlog'!E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
         <f>IF(F6=Lookups!$C$4,'Product Backlog'!E6,0)</f>
         <v>0</v>
       </c>
@@ -2539,36 +2089,36 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+    <row r="7" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="31">
         <v>9</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="31">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="4">
         <f>IF(F7=Lookups!$C$2,'Product Backlog'!E7,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <f>IF(F7=Lookups!$C$3,'Product Backlog'!E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="8">
         <f>IF(F7=Lookups!$C$4,'Product Backlog'!E7,0)</f>
         <v>0</v>
       </c>
@@ -2586,27 +2136,27 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+    <row r="8" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="31">
         <v>9</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="31">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="4">
         <f>IF(F8=Lookups!$C$2,'Product Backlog'!E8,0)</f>
         <v>10</v>
@@ -2615,7 +2165,7 @@
         <f>IF(F8=Lookups!$C$3,'Product Backlog'!E8,0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f>IF(F8=Lookups!$C$4,'Product Backlog'!E8,0)</f>
         <v>0</v>
       </c>
@@ -2633,27 +2183,27 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+    <row r="9" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="31">
         <v>9</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="31">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4">
         <f>IF(F9=Lookups!$C$2,'Product Backlog'!E9,0)</f>
         <v>10</v>
@@ -2662,7 +2212,7 @@
         <f>IF(F9=Lookups!$C$3,'Product Backlog'!E9,0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f>IF(F9=Lookups!$C$4,'Product Backlog'!E9,0)</f>
         <v>0</v>
       </c>
@@ -2680,27 +2230,27 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+    <row r="10" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="31">
         <v>7</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="31">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="4">
         <f>IF(F10=Lookups!$C$2,'Product Backlog'!E10,0)</f>
         <v>10</v>
@@ -2709,7 +2259,7 @@
         <f>IF(F10=Lookups!$C$3,'Product Backlog'!E10,0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f>IF(F10=Lookups!$C$4,'Product Backlog'!E10,0)</f>
         <v>0</v>
       </c>
@@ -2727,27 +2277,27 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+    <row r="11" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="31">
         <v>6</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="31">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="4">
         <f>IF(F11=Lookups!$C$2,'Product Backlog'!E11,0)</f>
         <v>10</v>
@@ -2756,7 +2306,7 @@
         <f>IF(F11=Lookups!$C$3,'Product Backlog'!E11,0)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <f>IF(F11=Lookups!$C$4,'Product Backlog'!E11,0)</f>
         <v>0</v>
       </c>
@@ -2774,27 +2324,27 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+    <row r="12" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="31">
         <v>8</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="31">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="4">
         <f>IF(F12=Lookups!$C$2,'Product Backlog'!E12,0)</f>
         <v>6</v>
@@ -2803,7 +2353,7 @@
         <f>IF(F12=Lookups!$C$3,'Product Backlog'!E12,0)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <f>IF(F12=Lookups!$C$4,'Product Backlog'!E12,0)</f>
         <v>0</v>
       </c>
@@ -2821,27 +2371,27 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+    <row r="13" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="31">
         <v>8</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="31">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="4">
         <f>IF(F13=Lookups!$C$2,'Product Backlog'!E13,0)</f>
         <v>8</v>
@@ -2850,7 +2400,7 @@
         <f>IF(F13=Lookups!$C$3,'Product Backlog'!E13,0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <f>IF(F13=Lookups!$C$4,'Product Backlog'!E13,0)</f>
         <v>0</v>
       </c>
@@ -2868,27 +2418,27 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+    <row r="14" spans="1:24" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="31">
         <v>8</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="31">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="4">
         <f>IF(F14=Lookups!$C$2,'Product Backlog'!E14,0)</f>
         <v>6</v>
@@ -2897,7 +2447,7 @@
         <f>IF(F14=Lookups!$C$3,'Product Backlog'!E14,0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <f>IF(F14=Lookups!$C$4,'Product Backlog'!E14,0)</f>
         <v>0</v>
       </c>
@@ -2915,27 +2465,27 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+    <row r="15" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="31">
         <v>8</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="31">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="4">
         <f>IF(F15=Lookups!$C$2,'Product Backlog'!E15,0)</f>
         <v>6</v>
@@ -2944,33 +2494,33 @@
         <f>IF(F15=Lookups!$C$3,'Product Backlog'!E15,0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f>IF(F15=Lookups!$C$4,'Product Backlog'!E15,0)</f>
         <v>0</v>
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+    <row r="16" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="31">
         <v>9</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="31">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="4">
         <f>IF(F16=Lookups!$C$2,'Product Backlog'!E16,0)</f>
         <v>8</v>
@@ -2979,7 +2529,7 @@
         <f>IF(F16=Lookups!$C$3,'Product Backlog'!E16,0)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f>IF(F16=Lookups!$C$4,'Product Backlog'!E16,0)</f>
         <v>0</v>
       </c>
@@ -2997,27 +2547,27 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+    <row r="17" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="31">
         <v>9</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="31">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="4">
         <f>IF(F17=Lookups!$C$2,'Product Backlog'!E17,0)</f>
         <v>8</v>
@@ -3026,7 +2576,7 @@
         <f>IF(F17=Lookups!$C$3,'Product Backlog'!E17,0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <f>IF(F17=Lookups!$C$4,'Product Backlog'!E17,0)</f>
         <v>0</v>
       </c>
@@ -3044,27 +2594,27 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+    <row r="18" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="31">
         <v>7</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="31">
         <v>8</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="4">
         <f>IF(F18=Lookups!$C$2,'Product Backlog'!E18,0)</f>
         <v>8</v>
@@ -3073,7 +2623,7 @@
         <f>IF(F18=Lookups!$C$3,'Product Backlog'!E18,0)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <f>IF(F18=Lookups!$C$4,'Product Backlog'!E18,0)</f>
         <v>0</v>
       </c>
@@ -3091,27 +2641,27 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+    <row r="19" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="31">
         <v>6</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="31">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="4">
         <f>IF(F19=Lookups!$C$2,'Product Backlog'!E19,0)</f>
         <v>8</v>
@@ -3120,7 +2670,7 @@
         <f>IF(F19=Lookups!$C$3,'Product Backlog'!E19,0)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <f>IF(F19=Lookups!$C$4,'Product Backlog'!E19,0)</f>
         <v>0</v>
       </c>
@@ -3138,27 +2688,27 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+    <row r="20" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="31">
         <v>9</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="31">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="4">
         <f>IF(F20=Lookups!$C$2,'Product Backlog'!E20,0)</f>
         <v>4</v>
@@ -3167,7 +2717,7 @@
         <f>IF(F20=Lookups!$C$3,'Product Backlog'!E20,0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <f>IF(F20=Lookups!$C$4,'Product Backlog'!E20,0)</f>
         <v>0</v>
       </c>
@@ -3185,27 +2735,27 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+    <row r="21" spans="1:24" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="31">
         <v>9</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="31">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="4">
         <f>IF(F21=Lookups!$C$2,'Product Backlog'!E21,0)</f>
         <v>4</v>
@@ -3214,7 +2764,7 @@
         <f>IF(F21=Lookups!$C$3,'Product Backlog'!E21,0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f>IF(F21=Lookups!$C$4,'Product Backlog'!E21,0)</f>
         <v>0</v>
       </c>
@@ -3232,27 +2782,27 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="31">
         <v>8</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="31">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="4">
         <f>IF(F22=Lookups!$C$2,'Product Backlog'!E22,0)</f>
         <v>4</v>
@@ -3261,7 +2811,7 @@
         <f>IF(F22=Lookups!$C$3,'Product Backlog'!E22,0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f>IF(F22=Lookups!$C$4,'Product Backlog'!E22,0)</f>
         <v>0</v>
       </c>
@@ -3279,27 +2829,27 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="31">
         <v>7</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="31">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="4">
         <f>IF(F23=Lookups!$C$2,'Product Backlog'!E23,0)</f>
         <v>4</v>
@@ -3308,7 +2858,7 @@
         <f>IF(F23=Lookups!$C$3,'Product Backlog'!E23,0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f>IF(F23=Lookups!$C$4,'Product Backlog'!E23,0)</f>
         <v>0</v>
       </c>
@@ -3326,27 +2876,27 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="31">
         <v>8</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="31">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="4">
         <f>IF(F24=Lookups!$C$2,'Product Backlog'!E24,0)</f>
         <v>2</v>
@@ -3355,7 +2905,7 @@
         <f>IF(F24=Lookups!$C$3,'Product Backlog'!E24,0)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f>IF(F24=Lookups!$C$4,'Product Backlog'!E24,0)</f>
         <v>0</v>
       </c>
@@ -3373,27 +2923,27 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+    <row r="25" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="31">
         <v>8</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="31">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="4">
         <f>IF(F25=Lookups!$C$2,'Product Backlog'!E25,0)</f>
         <v>2</v>
@@ -3402,7 +2952,7 @@
         <f>IF(F25=Lookups!$C$3,'Product Backlog'!E25,0)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f>IF(F25=Lookups!$C$4,'Product Backlog'!E25,0)</f>
         <v>0</v>
       </c>
@@ -3420,27 +2970,27 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+    <row r="26" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="31">
         <v>7</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="31">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="4">
         <f>IF(F26=Lookups!$C$2,'Product Backlog'!E26,0)</f>
         <v>2</v>
@@ -3449,7 +2999,7 @@
         <f>IF(F26=Lookups!$C$3,'Product Backlog'!E26,0)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <f>IF(F26=Lookups!$C$4,'Product Backlog'!E26,0)</f>
         <v>0</v>
       </c>
@@ -3467,29 +3017,29 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+    <row r="27" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="18">
         <v>6</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="18">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="4">
         <f>IF(F27=Lookups!$C$2,'Product Backlog'!E27,0)</f>
         <v>2</v>
@@ -3498,7 +3048,7 @@
         <f>IF(F27=Lookups!$C$3,'Product Backlog'!E27,0)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f>IF(F27=Lookups!$C$4,'Product Backlog'!E27,0)</f>
         <v>0</v>
       </c>
@@ -3516,26 +3066,27 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+    <row r="28" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="36">
         <v>9</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="36">
         <v>15</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="4">
         <f>IF(F28=Lookups!$C$2,'Product Backlog'!E28,0)</f>
         <v>15</v>
@@ -3544,7 +3095,7 @@
         <f>IF(F28=Lookups!$C$3,'Product Backlog'!E28,0)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <f>IF(F28=Lookups!$C$4,'Product Backlog'!E28,0)</f>
         <v>0</v>
       </c>
@@ -3562,27 +3113,27 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+    <row r="29" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="31">
         <v>9</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="31">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="4">
         <f>IF(F29=Lookups!$C$2,'Product Backlog'!E29,0)</f>
         <v>15</v>
@@ -3591,45 +3142,45 @@
         <f>IF(F29=Lookups!$C$3,'Product Backlog'!E29,0)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <f>IF(F29=Lookups!$C$4,'Product Backlog'!E29,0)</f>
         <v>0</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+    <row r="30" spans="1:24" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="18">
         <v>9</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="36">
         <v>10</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="4">
         <f>IF(F30=Lookups!$C$2,'Product Backlog'!E30,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <f>IF(F30=Lookups!$C$3,'Product Backlog'!E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
+        <v>10</v>
+      </c>
+      <c r="K30" s="8">
         <f>IF(F30=Lookups!$C$4,'Product Backlog'!E30,0)</f>
         <v>0</v>
       </c>
@@ -3647,36 +3198,36 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="27">
+    <row r="31" spans="1:24" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="31">
         <v>9</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="31">
         <v>4</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="4">
         <f>IF(F31=Lookups!$C$2,'Product Backlog'!E31,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <f>IF(F31=Lookups!$C$3,'Product Backlog'!E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
         <f>IF(F31=Lookups!$C$4,'Product Backlog'!E31,0)</f>
         <v>0</v>
       </c>
@@ -3694,29 +3245,29 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
+    <row r="32" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="31">
         <v>9</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="31">
         <v>3</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="4">
         <f>IF(F32=Lookups!$C$2,'Product Backlog'!E32,0)</f>
         <v>3</v>
@@ -3725,7 +3276,7 @@
         <f>IF(F32=Lookups!$C$3,'Product Backlog'!E32,0)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <f>IF(F32=Lookups!$C$4,'Product Backlog'!E32,0)</f>
         <v>0</v>
       </c>
@@ -3743,27 +3294,27 @@
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="27">
+    <row r="33" spans="1:24" ht="24" x14ac:dyDescent="0.2">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="31">
         <v>8</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="31">
         <v>5</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="42"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="4"/>
       <c r="J33" s="3"/>
       <c r="L33"/>
@@ -3780,27 +3331,27 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+    <row r="34" spans="1:24" ht="36" x14ac:dyDescent="0.2">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="31">
         <v>9</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="31">
         <v>5</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="42"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="4"/>
       <c r="J34" s="3"/>
       <c r="L34"/>
@@ -3818,26 +3369,26 @@
       <c r="X34"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="31">
         <v>9</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="31">
         <v>3</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="42"/>
+      <c r="F35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4"/>
       <c r="J35" s="3"/>
       <c r="L35"/>
@@ -3854,57 +3405,59 @@
       <c r="W35"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="H36" s="13"/>
+    <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="4"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="str">
+      <c r="A38" s="12" t="str">
         <f>"Next ID: "&amp;MAX(A2:A36)+1</f>
         <v>Next ID: 35</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="D38" s="15" t="s">
+      <c r="B38" s="13"/>
+      <c r="D38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="13">
         <f>SUM(E2:E36)</f>
         <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="24">
         <f>E38/4</f>
         <v>48.5</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="25">
         <f>E38/7</f>
         <v>27.714285714285715</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="25">
         <f>E39/7</f>
         <v>6.9285714285714288</v>
       </c>
@@ -3916,16 +3469,16 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C36:C65536 C1:C33">
-    <cfRule type="containsText" dxfId="19" priority="22" stopIfTrue="1" operator="containsText" text="fourth">
+    <cfRule type="containsText" dxfId="11" priority="22" stopIfTrue="1" operator="containsText" text="fourth">
       <formula>NOT(ISERROR(SEARCH("fourth",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="23" stopIfTrue="1" operator="containsText" text="third">
+    <cfRule type="containsText" dxfId="10" priority="23" stopIfTrue="1" operator="containsText" text="third">
       <formula>NOT(ISERROR(SEARCH("third",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="24" stopIfTrue="1" operator="containsText" text="second">
+    <cfRule type="containsText" dxfId="9" priority="24" stopIfTrue="1" operator="containsText" text="second">
       <formula>NOT(ISERROR(SEARCH("second",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="25" stopIfTrue="1" operator="containsText" text="first">
+    <cfRule type="containsText" dxfId="8" priority="25" stopIfTrue="1" operator="containsText" text="first">
       <formula>NOT(ISERROR(SEARCH("first",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3940,16 +3493,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="15" priority="17" stopIfTrue="1" operator="containsText" text="fourth">
+    <cfRule type="containsText" dxfId="7" priority="17" stopIfTrue="1" operator="containsText" text="fourth">
       <formula>NOT(ISERROR(SEARCH("fourth",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" stopIfTrue="1" operator="containsText" text="third">
+    <cfRule type="containsText" dxfId="6" priority="18" stopIfTrue="1" operator="containsText" text="third">
       <formula>NOT(ISERROR(SEARCH("third",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" stopIfTrue="1" operator="containsText" text="second">
+    <cfRule type="containsText" dxfId="5" priority="19" stopIfTrue="1" operator="containsText" text="second">
       <formula>NOT(ISERROR(SEARCH("second",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" stopIfTrue="1" operator="containsText" text="first">
+    <cfRule type="containsText" dxfId="4" priority="20" stopIfTrue="1" operator="containsText" text="first">
       <formula>NOT(ISERROR(SEARCH("first",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4048,74 +3601,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <f>SUM('Product Backlog'!E$2:E$36)</f>
         <v>194</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <f>SUM('Product Backlog'!I$2:I$36)</f>
-        <v>181</v>
-      </c>
-      <c r="C3" s="16">
+        <v>155</v>
+      </c>
+      <c r="C3" s="14">
         <f>SUM('Product Backlog'!J$2:J$36)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
+        <v>22</v>
+      </c>
+      <c r="D3" s="14">
         <f>SUM('Product Backlog'!K$2:K$36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
+      <c r="B17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -4141,16 +3694,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>31</v>
       </c>
     </row>
